--- a/Data/Røgbølle sø vandkemi SDU.xlsx
+++ b/Data/Røgbølle sø vandkemi SDU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni.sharepoint.com/sites/Sholts/Delte dokumenter/General/Data/Røgbølle sø vandkemi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jonassoe_biology_sdu_dk/Documents/Søholt/Shiny/Søholt overview/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{2A17D97B-635A-F945-A208-3FDA2B13955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A497AB88-288B-2E43-8B38-C778F5418740}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{2A17D97B-635A-F945-A208-3FDA2B13955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DC2E171-8257-1746-B133-D6CBED3B46AF}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="500" windowWidth="24740" windowHeight="16020" xr2:uid="{5D7A1A9F-5CA2-BB4B-8218-B6546C55E32F}"/>
+    <workbookView xWindow="12160" yWindow="-16040" windowWidth="24740" windowHeight="16020" xr2:uid="{5D7A1A9F-5CA2-BB4B-8218-B6546C55E32F}"/>
   </bookViews>
   <sheets>
     <sheet name="R format Alle parametre" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,9 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8C74E77F-8571-AB42-999E-F6CBE7BEF4AE}">
       <text>
-        <t>[Trådet kommentar]
-Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Dobbeltjekkes Birthe, for der lader til at være en enheds/faktor 1000 fejl…</t>
       </text>
     </comment>
@@ -644,7 +644,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -711,7 +711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -787,7 +787,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -927,7 +927,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -965,7 +965,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555165087"/>
@@ -1033,7 +1033,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1071,7 +1071,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="536246159"/>
@@ -1112,7 +1112,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1126,7 +1126,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1193,7 +1193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1275,7 +1275,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1415,7 +1415,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1453,7 +1453,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555165087"/>
@@ -1521,7 +1521,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1559,7 +1559,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="536246159"/>
@@ -1600,7 +1600,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2868,7 +2868,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3195,7 +3195,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3263,9 +3263,8 @@
         <f>'Klo a'!T3</f>
         <v>8.4412470023980806</v>
       </c>
-      <c r="E2" s="48">
-        <f>TN!B2</f>
-        <v>21.78</v>
+      <c r="E2" s="7">
+        <v>1.5620000000000001</v>
       </c>
       <c r="F2" s="7">
         <f>'DIN eller…. '!B2</f>
@@ -3288,9 +3287,8 @@
         <f>'Klo a'!T4</f>
         <v>11.510791366906473</v>
       </c>
-      <c r="E3" s="48">
-        <f>TN!B3</f>
-        <v>21.02</v>
+      <c r="E3" s="7">
+        <v>1.3280000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5312,15 +5310,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b2bd2442-1130-4b14-9256-ed56d6ae61c1" xsi:nil="true"/>
@@ -5329,6 +5318,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5351,26 +5349,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55A40501-741B-46A2-823D-AD38D5FC7BE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4de05bb6-80b2-4b80-8f12-dac234166d01"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b2bd2442-1130-4b14-9256-ed56d6ae61c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A8913D-77A9-4D16-B538-82300CDC2E9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55A40501-741B-46A2-823D-AD38D5FC7BE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4de05bb6-80b2-4b80-8f12-dac234166d01"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b2bd2442-1130-4b14-9256-ed56d6ae61c1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>